--- a/Airquality/participant_meta_data/participant_meta_data.xlsx
+++ b/Airquality/participant_meta_data/participant_meta_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/Bushra/Yiwen_expt_31_05__01_06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/toilet_observational_study/Airquality/participant_meta_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455F885D-69DC-9A45-A68D-223CAE31610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D267E6-9F85-6442-B108-55AAAB00E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="3260" windowWidth="45280" windowHeight="26700" xr2:uid="{DCC5170C-0A3E-7245-87B6-FB5476882216}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="43320" windowHeight="35360" xr2:uid="{DCC5170C-0A3E-7245-87B6-FB5476882216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="32">
   <si>
     <t>participantID</t>
   </si>
@@ -52,26 +52,102 @@
     <t>activity</t>
   </si>
   <si>
+    <t>WT_001_W</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
-    <t>WT_001_W</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>WT_002_W</t>
+  </si>
+  <si>
+    <t>WT_003_W</t>
+  </si>
+  <si>
+    <t>WT_004_W</t>
+  </si>
+  <si>
+    <t>WT_005_W</t>
+  </si>
+  <si>
+    <t>WT_006_W</t>
+  </si>
+  <si>
+    <t>WT_007_W</t>
+  </si>
+  <si>
+    <t>WT_008_W</t>
+  </si>
+  <si>
+    <t>WT_009_W</t>
+  </si>
+  <si>
+    <t>WT_010_W</t>
+  </si>
+  <si>
+    <t>WT_011_W</t>
+  </si>
+  <si>
+    <t>MT_001_M</t>
+  </si>
+  <si>
+    <t>MT_002_M</t>
+  </si>
+  <si>
+    <t>MT_003_M</t>
+  </si>
+  <si>
+    <t>MT_004_M</t>
+  </si>
+  <si>
+    <t>MT_005_M</t>
+  </si>
+  <si>
+    <t>MT_006_M</t>
+  </si>
+  <si>
+    <t>MT_007_M</t>
+  </si>
+  <si>
+    <t>MT_008_M</t>
+  </si>
+  <si>
+    <t>MT_009_M</t>
+  </si>
+  <si>
+    <t>MT_010_M</t>
+  </si>
+  <si>
+    <t>MT_011_M</t>
+  </si>
+  <si>
+    <t>experimentID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30620ADD-C2F2-9B4B-8374-4E1B05296CDB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,39 +520,1148 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44767.542361111111</v>
+        <v>44767.636111111111</v>
       </c>
       <c r="C2" s="1">
-        <v>44767.545138888891</v>
+        <v>44767.637708333335</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
       <c r="B3" s="1">
-        <v>44767.548611111109</v>
+        <v>44767.638888888891</v>
       </c>
       <c r="C3" s="1">
-        <v>44767.552083333336</v>
+        <v>44767.640138888892</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44767.640972222223</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44767.642789351848</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44767.650694444441</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44767.651423611111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44767.652083333334</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44767.653148148151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44767.656944444447</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44767.658333333333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44767.674305555556</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44767.676215277781</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44767.677777777775</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44767.686805555553</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44767.692361111112</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44767.694444444445</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44768.492361111108</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44768.493298611109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44768.494444444441</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44768.495983796296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44768.49722222222</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44768.498935185184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44768.518750000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44768.52076388889</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44768.520833333336</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44768.526134259257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44768.527777777781</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44768.528726851851</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44768.536805555559</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44768.537951388891</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44768.538888888892</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44768.54146990741</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44768.542361111111</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44768.544178240743</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44768.602777777778</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44768.605474537035</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44768.605555555558</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44768.609340277777</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44768.61041666667</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44768.613518518519</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44768.618750000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44768.620810185188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44768.621527777781</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44768.626122685186</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44768.62777777778</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44768.629814814813</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44768.654861111114</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44768.655995370369</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44768.656944444447</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44768.659502314818</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44768.661111111112</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44768.663124999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44768.675694444442</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44768.676921296297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44768.677777777775</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44768.682233796295</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44768.684027777781</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44768.68582175926</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44770.536111111112</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44770.53765046296</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44770.538888888892</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44770.544849537036</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44770.54583333333</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44770.548217592594</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44769.442361111112</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44769.442974537036</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44769.445138888892</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44769.44699074074</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44769.464583333334</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44769.465474537035</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44769.466666666667</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44769.471400462964</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44769.474999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44769.475578703707</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44769.478472222225</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44769.480706018519</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44769.486111111109</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44769.487071759257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44769.488194444442</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44769.491655092592</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44769.499305555553</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44769.50068287037</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44769.500694444447</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44769.501944444448</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44769.506249999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44769.507650462961</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44769.509722222225</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44769.514108796298</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44769.580555555556</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44769.581643518519</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44769.582638888889</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44769.589733796296</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44769.603472222225</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44769.604814814818</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44769.604861111111</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44769.606319444443</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44769.629166666666</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44769.629629629628</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44769.630555555559</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44769.637962962966</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44769.644444444442</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44769.645613425928</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44769.647916666669</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44769.655277777776</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44770.504166666666</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44770.505555555559</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44770.506944444445</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44770.510185185187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44770.513194444444</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44770.513969907406</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44770.51458333333</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44770.517523148148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
